--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -4528,10 +4528,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910416</v>
+        <v>111910577</v>
       </c>
       <c r="B35" t="n">
-        <v>73510</v>
+        <v>78605</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4544,21 +4544,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6428</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4568,10 +4568,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408382.2393677595</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R35" t="n">
-        <v>7020103.568264721</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4624,21 +4624,6 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4659,10 +4644,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910577</v>
+        <v>111910416</v>
       </c>
       <c r="B36" t="n">
-        <v>78605</v>
+        <v>73510</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4675,21 +4660,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6462</v>
+        <v>6428</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4699,10 +4684,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408390.1474688642</v>
+        <v>408382.2393677595</v>
       </c>
       <c r="R36" t="n">
-        <v>7020254.53636289</v>
+        <v>7020103.568264721</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4755,6 +4740,21 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111910580</v>
+        <v>111910584</v>
       </c>
       <c r="B2" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408399.1372819798</v>
+        <v>408422.6472976486</v>
       </c>
       <c r="R2" t="n">
-        <v>7020269.579071276</v>
+        <v>7020304.006376172</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910568</v>
+        <v>111910426</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>73696</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408324.8906824787</v>
+        <v>408400.0377109755</v>
       </c>
       <c r="R3" t="n">
-        <v>7019972.903301069</v>
+        <v>7020269.553407325</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910418</v>
+        <v>111910567</v>
       </c>
       <c r="B4" t="n">
-        <v>78542</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,38 +924,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229748</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408388.6190515108</v>
+        <v>408284.1964350128</v>
       </c>
       <c r="R4" t="n">
-        <v>7020232.531316935</v>
+        <v>7019857.509490959</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,6 +1003,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,7 +1038,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910425</v>
+        <v>111910407</v>
       </c>
       <c r="B5" t="n">
         <v>76499</v>
@@ -1068,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408400.3469668561</v>
+        <v>408302.5497877288</v>
       </c>
       <c r="R5" t="n">
-        <v>7020264.594941486</v>
+        <v>7019916.388793938</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910407</v>
+        <v>111910582</v>
       </c>
       <c r="B6" t="n">
-        <v>76499</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,34 +1170,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228579</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408302.5497877288</v>
+        <v>408413.6559175308</v>
       </c>
       <c r="R6" t="n">
-        <v>7019916.388793938</v>
+        <v>7020304.712562223</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910406</v>
+        <v>111910405</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1287,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408282.1748230148</v>
+        <v>408279.1267730237</v>
       </c>
       <c r="R7" t="n">
-        <v>7019881.418488222</v>
+        <v>7019869.354815559</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1391,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910562</v>
+        <v>111910423</v>
       </c>
       <c r="B8" t="n">
-        <v>73510</v>
+        <v>78512</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1407,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6428</v>
+        <v>6456</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408257.5929517139</v>
+        <v>408390.8445185713</v>
       </c>
       <c r="R8" t="n">
-        <v>7019841.167629559</v>
+        <v>7020231.567934379</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910415</v>
+        <v>111910409</v>
       </c>
       <c r="B9" t="n">
-        <v>78612</v>
+        <v>78579</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1519,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6464</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1547,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408381.4174405072</v>
+        <v>408339.4740217168</v>
       </c>
       <c r="R9" t="n">
-        <v>7020090.541921036</v>
+        <v>7020026.038126357</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1623,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910408</v>
+        <v>111910413</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,39 +1639,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408291.5754312158</v>
+        <v>408368.6200402618</v>
       </c>
       <c r="R10" t="n">
-        <v>7019926.602274518</v>
+        <v>7020068.407007784</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1729,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910581</v>
+        <v>111910425</v>
       </c>
       <c r="B11" t="n">
-        <v>73696</v>
+        <v>76499</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,21 +1755,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408431.9114105235</v>
+        <v>408400.3469668561</v>
       </c>
       <c r="R11" t="n">
-        <v>7020281.244182837</v>
+        <v>7020264.594941486</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910582</v>
+        <v>111910419</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,39 +1871,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408413.6559175308</v>
+        <v>408379.6130448866</v>
       </c>
       <c r="R12" t="n">
-        <v>7020304.712562223</v>
+        <v>7020248.537071504</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910571</v>
+        <v>111910424</v>
       </c>
       <c r="B13" t="n">
-        <v>77599</v>
+        <v>78579</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,21 +1987,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>283</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2006,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408375.9600568643</v>
+        <v>408401.8052889875</v>
       </c>
       <c r="R13" t="n">
-        <v>7020120.39690064</v>
+        <v>7020220.906122548</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2062,6 +2067,21 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2082,10 +2102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910569</v>
+        <v>111910580</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2098,21 +2118,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2122,10 +2142,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408378.75428201</v>
+        <v>408399.1372819798</v>
       </c>
       <c r="R14" t="n">
-        <v>7020218.413349213</v>
+        <v>7020269.579071276</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2198,10 +2218,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910412</v>
+        <v>111910568</v>
       </c>
       <c r="B15" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,25 +2230,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2258,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408374.6270096785</v>
+        <v>408324.8906824787</v>
       </c>
       <c r="R15" t="n">
-        <v>7020073.635709419</v>
+        <v>7019972.903301069</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2314,10 +2334,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910411</v>
+        <v>111910427</v>
       </c>
       <c r="B16" t="n">
-        <v>90332</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2330,21 +2350,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2354,10 +2374,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408373.6624359366</v>
+        <v>408393.1435239307</v>
       </c>
       <c r="R16" t="n">
-        <v>7020071.413228817</v>
+        <v>7020264.800259375</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2430,10 +2450,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910572</v>
+        <v>111910563</v>
       </c>
       <c r="B17" t="n">
-        <v>89405</v>
+        <v>76872</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2442,25 +2462,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2470,10 +2490,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408390.5581407979</v>
+        <v>408253.5661489163</v>
       </c>
       <c r="R17" t="n">
-        <v>7020142.48014423</v>
+        <v>7019842.182620179</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2546,10 +2566,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910566</v>
+        <v>111910416</v>
       </c>
       <c r="B18" t="n">
-        <v>77599</v>
+        <v>73510</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2558,25 +2578,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>283</v>
+        <v>6428</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2586,10 +2606,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408271.3963294498</v>
+        <v>408382.2393677595</v>
       </c>
       <c r="R18" t="n">
-        <v>7019851.124340268</v>
+        <v>7020103.568264721</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2642,6 +2662,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2662,10 +2697,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910423</v>
+        <v>111910420</v>
       </c>
       <c r="B19" t="n">
-        <v>78512</v>
+        <v>73696</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,25 +2709,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6456</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2737,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408390.8445185713</v>
+        <v>408379.4720543776</v>
       </c>
       <c r="R19" t="n">
-        <v>7020231.567934379</v>
+        <v>7020243.591405082</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2778,10 +2813,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111910570</v>
+        <v>111910571</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>77599</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,21 +2829,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>283</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2818,10 +2853,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408349.1653838595</v>
+        <v>408375.9600568643</v>
       </c>
       <c r="R20" t="n">
-        <v>7020113.061050257</v>
+        <v>7020120.39690064</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2894,10 +2929,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910409</v>
+        <v>111910575</v>
       </c>
       <c r="B21" t="n">
-        <v>78579</v>
+        <v>73681</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,25 +2941,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2081</v>
+        <v>6439</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2969,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408339.4740217168</v>
+        <v>408386.4833001395</v>
       </c>
       <c r="R21" t="n">
-        <v>7020026.038126357</v>
+        <v>7020236.641953751</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3010,10 +3045,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910414</v>
+        <v>111910566</v>
       </c>
       <c r="B22" t="n">
-        <v>73696</v>
+        <v>77599</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3026,21 +3061,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>283</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3050,10 +3085,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408383.6430053388</v>
+        <v>408271.3963294498</v>
       </c>
       <c r="R22" t="n">
-        <v>7020089.578494517</v>
+        <v>7019851.124340268</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3126,7 +3161,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910567</v>
+        <v>111910408</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3171,10 +3206,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408284.1964350128</v>
+        <v>408291.5754312158</v>
       </c>
       <c r="R23" t="n">
-        <v>7019857.509490959</v>
+        <v>7019926.602274518</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3217,11 +3252,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3252,10 +3282,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910419</v>
+        <v>111910414</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3268,21 +3298,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3292,10 +3322,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408379.6130448866</v>
+        <v>408383.6430053388</v>
       </c>
       <c r="R24" t="n">
-        <v>7020248.537071504</v>
+        <v>7020089.578494517</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3368,7 +3398,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910579</v>
+        <v>111910562</v>
       </c>
       <c r="B25" t="n">
         <v>73510</v>
@@ -3408,10 +3438,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408392.1277534838</v>
+        <v>408257.5929517139</v>
       </c>
       <c r="R25" t="n">
-        <v>7020260.779492035</v>
+        <v>7019841.167629559</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3484,10 +3514,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910405</v>
+        <v>111910565</v>
       </c>
       <c r="B26" t="n">
-        <v>78605</v>
+        <v>77599</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3496,25 +3526,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6462</v>
+        <v>283</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3524,10 +3554,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408279.1267730237</v>
+        <v>408269.3502808261</v>
       </c>
       <c r="R26" t="n">
-        <v>7019869.354815559</v>
+        <v>7019858.383160467</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3600,10 +3630,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111910420</v>
+        <v>111910572</v>
       </c>
       <c r="B27" t="n">
-        <v>73696</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,21 +3646,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3640,10 +3670,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408379.4720543776</v>
+        <v>408390.5581407979</v>
       </c>
       <c r="R27" t="n">
-        <v>7020243.591405082</v>
+        <v>7020142.48014423</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3716,10 +3746,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910575</v>
+        <v>111910581</v>
       </c>
       <c r="B28" t="n">
-        <v>73681</v>
+        <v>73696</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3728,25 +3758,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6439</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3756,10 +3786,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408386.4833001395</v>
+        <v>408431.9114105235</v>
       </c>
       <c r="R28" t="n">
-        <v>7020236.641953751</v>
+        <v>7020281.244182837</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3832,10 +3862,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910563</v>
+        <v>111910406</v>
       </c>
       <c r="B29" t="n">
-        <v>76872</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,25 +3874,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>498</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3872,10 +3902,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408253.5661489163</v>
+        <v>408282.1748230148</v>
       </c>
       <c r="R29" t="n">
-        <v>7019842.182620179</v>
+        <v>7019881.418488222</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3948,10 +3978,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910426</v>
+        <v>111910569</v>
       </c>
       <c r="B30" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,21 +3994,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3988,10 +4018,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408400.0377109755</v>
+        <v>408378.75428201</v>
       </c>
       <c r="R30" t="n">
-        <v>7020269.553407325</v>
+        <v>7020218.413349213</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4180,10 +4210,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910564</v>
+        <v>111910570</v>
       </c>
       <c r="B32" t="n">
-        <v>96370</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4192,25 +4222,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>219847</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4220,10 +4250,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408272.4765226962</v>
+        <v>408349.1653838595</v>
       </c>
       <c r="R32" t="n">
-        <v>7019857.39389276</v>
+        <v>7020113.061050257</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4296,10 +4326,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910584</v>
+        <v>111910576</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>88966</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4312,21 +4342,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>5754</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4336,10 +4366,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408422.6472976486</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R33" t="n">
-        <v>7020304.006376172</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4412,10 +4442,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910413</v>
+        <v>111910577</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>78605</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4424,25 +4454,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4452,10 +4482,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408368.6200402618</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R34" t="n">
-        <v>7020068.407007784</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4528,10 +4558,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910577</v>
+        <v>111910418</v>
       </c>
       <c r="B35" t="n">
-        <v>78605</v>
+        <v>78542</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4544,21 +4574,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6462</v>
+        <v>229748</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4568,10 +4598,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408390.1474688642</v>
+        <v>408388.6190515108</v>
       </c>
       <c r="R35" t="n">
-        <v>7020254.53636289</v>
+        <v>7020232.531316935</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4644,10 +4674,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910416</v>
+        <v>111910415</v>
       </c>
       <c r="B36" t="n">
-        <v>73510</v>
+        <v>78612</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4660,21 +4690,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6428</v>
+        <v>6464</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4684,10 +4714,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408382.2393677595</v>
+        <v>408381.4174405072</v>
       </c>
       <c r="R36" t="n">
-        <v>7020103.568264721</v>
+        <v>7020090.541921036</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4740,21 +4770,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4775,10 +4790,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910576</v>
+        <v>111910579</v>
       </c>
       <c r="B37" t="n">
-        <v>88966</v>
+        <v>73510</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4787,25 +4802,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5754</v>
+        <v>6428</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4815,10 +4830,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408390.1474688642</v>
+        <v>408392.1277534838</v>
       </c>
       <c r="R37" t="n">
-        <v>7020254.53636289</v>
+        <v>7020260.779492035</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4891,10 +4906,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910427</v>
+        <v>111910403</v>
       </c>
       <c r="B38" t="n">
-        <v>90087</v>
+        <v>77597</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4903,25 +4918,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3298</v>
+        <v>864</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4931,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408393.1435239307</v>
+        <v>408251.2666143124</v>
       </c>
       <c r="R38" t="n">
-        <v>7020264.800259375</v>
+        <v>7019793.194737672</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5007,10 +5022,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910424</v>
+        <v>111910412</v>
       </c>
       <c r="B39" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5019,25 +5034,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5047,10 +5062,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408401.8052889875</v>
+        <v>408374.6270096785</v>
       </c>
       <c r="R39" t="n">
-        <v>7020220.906122548</v>
+        <v>7020073.635709419</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5103,21 +5118,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5138,10 +5138,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910403</v>
+        <v>111910564</v>
       </c>
       <c r="B40" t="n">
-        <v>77597</v>
+        <v>96370</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5150,25 +5150,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>864</v>
+        <v>219847</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5178,10 +5178,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408251.2666143124</v>
+        <v>408272.4765226962</v>
       </c>
       <c r="R40" t="n">
-        <v>7019793.194737672</v>
+        <v>7019857.39389276</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5254,10 +5254,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910565</v>
+        <v>111910411</v>
       </c>
       <c r="B41" t="n">
-        <v>77599</v>
+        <v>90332</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5266,25 +5266,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>283</v>
+        <v>4769</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408269.3502808261</v>
+        <v>408373.6624359366</v>
       </c>
       <c r="R41" t="n">
-        <v>7019858.383160467</v>
+        <v>7020071.413228817</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111910584</v>
+        <v>111910413</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408422.6472976486</v>
+        <v>408368.6200402618</v>
       </c>
       <c r="R2" t="n">
-        <v>7020304.006376172</v>
+        <v>7020068.407007784</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910426</v>
+        <v>111910403</v>
       </c>
       <c r="B3" t="n">
-        <v>73696</v>
+        <v>77597</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408400.0377109755</v>
+        <v>408251.2666143124</v>
       </c>
       <c r="R3" t="n">
-        <v>7020269.553407325</v>
+        <v>7019793.194737672</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910567</v>
+        <v>111910412</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>78611</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,43 +924,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408284.1964350128</v>
+        <v>408374.6270096785</v>
       </c>
       <c r="R4" t="n">
-        <v>7019857.509490959</v>
+        <v>7020073.635709419</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,11 +998,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1038,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910407</v>
+        <v>111910419</v>
       </c>
       <c r="B5" t="n">
-        <v>76499</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1078,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408302.5497877288</v>
+        <v>408379.6130448866</v>
       </c>
       <c r="R5" t="n">
-        <v>7019916.388793938</v>
+        <v>7020248.537071504</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910582</v>
+        <v>111910568</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,39 +1160,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408413.6559175308</v>
+        <v>408324.8906824787</v>
       </c>
       <c r="R6" t="n">
-        <v>7020304.712562223</v>
+        <v>7019972.903301069</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1275,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910405</v>
+        <v>111910577</v>
       </c>
       <c r="B7" t="n">
         <v>78605</v>
@@ -1315,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408279.1267730237</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R7" t="n">
-        <v>7019869.354815559</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1391,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910423</v>
+        <v>111910425</v>
       </c>
       <c r="B8" t="n">
-        <v>78512</v>
+        <v>76499</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1403,25 +1388,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6456</v>
+        <v>228579</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1431,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408390.8445185713</v>
+        <v>408400.3469668561</v>
       </c>
       <c r="R8" t="n">
-        <v>7020231.567934379</v>
+        <v>7020264.594941486</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1507,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910409</v>
+        <v>111910582</v>
       </c>
       <c r="B9" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,34 +1508,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408339.4740217168</v>
+        <v>408413.6559175308</v>
       </c>
       <c r="R9" t="n">
-        <v>7020026.038126357</v>
+        <v>7020304.712562223</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1623,10 +1613,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910413</v>
+        <v>111910562</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>73510</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1635,25 +1625,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6428</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1663,10 +1653,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408368.6200402618</v>
+        <v>408257.5929517139</v>
       </c>
       <c r="R10" t="n">
-        <v>7020068.407007784</v>
+        <v>7019841.167629559</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910425</v>
+        <v>111910579</v>
       </c>
       <c r="B11" t="n">
-        <v>76499</v>
+        <v>73510</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1751,25 +1741,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228579</v>
+        <v>6428</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408400.3469668561</v>
+        <v>408392.1277534838</v>
       </c>
       <c r="R11" t="n">
-        <v>7020264.594941486</v>
+        <v>7020260.779492035</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1855,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910419</v>
+        <v>111910584</v>
       </c>
       <c r="B12" t="n">
         <v>89423</v>
@@ -1895,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408379.6130448866</v>
+        <v>408422.6472976486</v>
       </c>
       <c r="R12" t="n">
-        <v>7020248.537071504</v>
+        <v>7020304.006376172</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1971,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910424</v>
+        <v>111910423</v>
       </c>
       <c r="B13" t="n">
-        <v>78579</v>
+        <v>78512</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1983,25 +1973,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2011,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408401.8052889875</v>
+        <v>408390.8445185713</v>
       </c>
       <c r="R13" t="n">
-        <v>7020220.906122548</v>
+        <v>7020231.567934379</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2067,21 +2057,6 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2102,10 +2077,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910580</v>
+        <v>111910408</v>
       </c>
       <c r="B14" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2118,34 +2093,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408399.1372819798</v>
+        <v>408291.5754312158</v>
       </c>
       <c r="R14" t="n">
-        <v>7020269.579071276</v>
+        <v>7019926.602274518</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910568</v>
+        <v>111910567</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2234,34 +2214,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408324.8906824787</v>
+        <v>408284.1964350128</v>
       </c>
       <c r="R15" t="n">
-        <v>7019972.903301069</v>
+        <v>7019857.509490959</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2304,6 +2289,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2334,10 +2324,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910427</v>
+        <v>111910580</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>89401</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2346,25 +2336,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2374,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408393.1435239307</v>
+        <v>408399.1372819798</v>
       </c>
       <c r="R16" t="n">
-        <v>7020264.800259375</v>
+        <v>7020269.579071276</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2450,10 +2440,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910563</v>
+        <v>111910575</v>
       </c>
       <c r="B17" t="n">
-        <v>76872</v>
+        <v>73681</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2462,25 +2452,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>498</v>
+        <v>6439</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2490,10 +2480,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408253.5661489163</v>
+        <v>408386.4833001395</v>
       </c>
       <c r="R17" t="n">
-        <v>7019842.182620179</v>
+        <v>7020236.641953751</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2566,10 +2556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910416</v>
+        <v>111910566</v>
       </c>
       <c r="B18" t="n">
-        <v>73510</v>
+        <v>77599</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2578,25 +2568,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6428</v>
+        <v>283</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2606,10 +2596,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408382.2393677595</v>
+        <v>408271.3963294498</v>
       </c>
       <c r="R18" t="n">
-        <v>7020103.568264721</v>
+        <v>7019851.124340268</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2662,21 +2652,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2697,10 +2672,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910420</v>
+        <v>111910427</v>
       </c>
       <c r="B19" t="n">
-        <v>73696</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2709,25 +2684,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2737,10 +2712,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408379.4720543776</v>
+        <v>408393.1435239307</v>
       </c>
       <c r="R19" t="n">
-        <v>7020243.591405082</v>
+        <v>7020264.800259375</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2813,10 +2788,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111910571</v>
+        <v>111910424</v>
       </c>
       <c r="B20" t="n">
-        <v>77599</v>
+        <v>78579</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,21 +2804,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>283</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2853,10 +2828,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408375.9600568643</v>
+        <v>408401.8052889875</v>
       </c>
       <c r="R20" t="n">
-        <v>7020120.39690064</v>
+        <v>7020220.906122548</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2909,6 +2884,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2929,10 +2919,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910575</v>
+        <v>111910414</v>
       </c>
       <c r="B21" t="n">
-        <v>73681</v>
+        <v>73696</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2941,25 +2931,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6439</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2969,10 +2959,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408386.4833001395</v>
+        <v>408383.6430053388</v>
       </c>
       <c r="R21" t="n">
-        <v>7020236.641953751</v>
+        <v>7020089.578494517</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3045,10 +3035,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910566</v>
+        <v>111910405</v>
       </c>
       <c r="B22" t="n">
-        <v>77599</v>
+        <v>78605</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3057,25 +3047,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>283</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3085,10 +3075,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408271.3963294498</v>
+        <v>408279.1267730237</v>
       </c>
       <c r="R22" t="n">
-        <v>7019851.124340268</v>
+        <v>7019869.354815559</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3161,10 +3151,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910408</v>
+        <v>111910574</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3177,39 +3167,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408291.5754312158</v>
+        <v>408385.7912159235</v>
       </c>
       <c r="R23" t="n">
-        <v>7019926.602274518</v>
+        <v>7020212.363065572</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3282,10 +3267,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910414</v>
+        <v>111910409</v>
       </c>
       <c r="B24" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3298,21 +3283,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3322,10 +3307,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408383.6430053388</v>
+        <v>408339.4740217168</v>
       </c>
       <c r="R24" t="n">
-        <v>7020089.578494517</v>
+        <v>7020026.038126357</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3398,7 +3383,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910562</v>
+        <v>111910416</v>
       </c>
       <c r="B25" t="n">
         <v>73510</v>
@@ -3438,10 +3423,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408257.5929517139</v>
+        <v>408382.2393677595</v>
       </c>
       <c r="R25" t="n">
-        <v>7019841.167629559</v>
+        <v>7020103.568264721</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3494,6 +3479,21 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3514,10 +3514,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910565</v>
+        <v>111910407</v>
       </c>
       <c r="B26" t="n">
-        <v>77599</v>
+        <v>76499</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3530,21 +3530,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>283</v>
+        <v>228579</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408269.3502808261</v>
+        <v>408302.5497877288</v>
       </c>
       <c r="R26" t="n">
-        <v>7019858.383160467</v>
+        <v>7019916.388793938</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111910572</v>
+        <v>111910564</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>96370</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3642,25 +3642,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>219847</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3670,10 +3670,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408390.5581407979</v>
+        <v>408272.4765226962</v>
       </c>
       <c r="R27" t="n">
-        <v>7020142.48014423</v>
+        <v>7019857.39389276</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910581</v>
+        <v>111910411</v>
       </c>
       <c r="B28" t="n">
-        <v>73696</v>
+        <v>90332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3758,25 +3758,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>4769</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408431.9114105235</v>
+        <v>408373.6624359366</v>
       </c>
       <c r="R28" t="n">
-        <v>7020281.244182837</v>
+        <v>7020071.413228817</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910406</v>
+        <v>111910576</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>88966</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3878,21 +3878,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>5754</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408282.1748230148</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R29" t="n">
-        <v>7019881.418488222</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910569</v>
+        <v>111910406</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3994,21 +3994,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4018,10 +4018,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408378.75428201</v>
+        <v>408282.1748230148</v>
       </c>
       <c r="R30" t="n">
-        <v>7020218.413349213</v>
+        <v>7019881.418488222</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111910574</v>
+        <v>111910581</v>
       </c>
       <c r="B31" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4110,21 +4110,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408385.7912159235</v>
+        <v>408431.9114105235</v>
       </c>
       <c r="R31" t="n">
-        <v>7020212.363065572</v>
+        <v>7020281.244182837</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4210,10 +4210,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910570</v>
+        <v>111910563</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>76872</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4222,25 +4222,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408349.1653838595</v>
+        <v>408253.5661489163</v>
       </c>
       <c r="R32" t="n">
-        <v>7020113.061050257</v>
+        <v>7019842.182620179</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4326,10 +4326,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910576</v>
+        <v>111910571</v>
       </c>
       <c r="B33" t="n">
-        <v>88966</v>
+        <v>77599</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4342,21 +4342,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5754</v>
+        <v>283</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408390.1474688642</v>
+        <v>408375.9600568643</v>
       </c>
       <c r="R33" t="n">
-        <v>7020254.53636289</v>
+        <v>7020120.39690064</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4442,10 +4442,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910577</v>
+        <v>111910418</v>
       </c>
       <c r="B34" t="n">
-        <v>78605</v>
+        <v>78542</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4458,21 +4458,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6462</v>
+        <v>229748</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4482,10 +4482,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408390.1474688642</v>
+        <v>408388.6190515108</v>
       </c>
       <c r="R34" t="n">
-        <v>7020254.53636289</v>
+        <v>7020232.531316935</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4558,10 +4558,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910418</v>
+        <v>111910572</v>
       </c>
       <c r="B35" t="n">
-        <v>78542</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4570,25 +4570,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>229748</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408388.6190515108</v>
+        <v>408390.5581407979</v>
       </c>
       <c r="R35" t="n">
-        <v>7020232.531316935</v>
+        <v>7020142.48014423</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910415</v>
+        <v>111910569</v>
       </c>
       <c r="B36" t="n">
-        <v>78612</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4686,25 +4686,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6464</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408381.4174405072</v>
+        <v>408378.75428201</v>
       </c>
       <c r="R36" t="n">
-        <v>7020090.541921036</v>
+        <v>7020218.413349213</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4790,10 +4790,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910579</v>
+        <v>111910570</v>
       </c>
       <c r="B37" t="n">
-        <v>73510</v>
+        <v>89423</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4802,25 +4802,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6428</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408392.1277534838</v>
+        <v>408349.1653838595</v>
       </c>
       <c r="R37" t="n">
-        <v>7020260.779492035</v>
+        <v>7020113.061050257</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910403</v>
+        <v>111910565</v>
       </c>
       <c r="B38" t="n">
-        <v>77597</v>
+        <v>77599</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>864</v>
+        <v>283</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408251.2666143124</v>
+        <v>408269.3502808261</v>
       </c>
       <c r="R38" t="n">
-        <v>7019793.194737672</v>
+        <v>7019858.383160467</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910412</v>
+        <v>111910426</v>
       </c>
       <c r="B39" t="n">
-        <v>78611</v>
+        <v>73696</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5034,25 +5034,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6463</v>
+        <v>6440</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5062,10 +5062,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408374.6270096785</v>
+        <v>408400.0377109755</v>
       </c>
       <c r="R39" t="n">
-        <v>7020073.635709419</v>
+        <v>7020269.553407325</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910564</v>
+        <v>111910420</v>
       </c>
       <c r="B40" t="n">
-        <v>96370</v>
+        <v>73696</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5150,25 +5150,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>219847</v>
+        <v>6440</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5178,10 +5178,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408272.4765226962</v>
+        <v>408379.4720543776</v>
       </c>
       <c r="R40" t="n">
-        <v>7019857.39389276</v>
+        <v>7020243.591405082</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5254,10 +5254,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910411</v>
+        <v>111910415</v>
       </c>
       <c r="B41" t="n">
-        <v>90332</v>
+        <v>78612</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5270,21 +5270,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4769</v>
+        <v>6464</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408373.6624359366</v>
+        <v>408381.4174405072</v>
       </c>
       <c r="R41" t="n">
-        <v>7020071.413228817</v>
+        <v>7020090.541921036</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111910413</v>
+        <v>111910427</v>
       </c>
       <c r="B2" t="n">
-        <v>78579</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408368.6200402618</v>
+        <v>408393.1435239307</v>
       </c>
       <c r="R2" t="n">
-        <v>7020068.407007784</v>
+        <v>7020264.800259375</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910403</v>
+        <v>111910579</v>
       </c>
       <c r="B3" t="n">
-        <v>77597</v>
+        <v>73510</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>864</v>
+        <v>6428</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408251.2666143124</v>
+        <v>408392.1277534838</v>
       </c>
       <c r="R3" t="n">
-        <v>7019793.194737672</v>
+        <v>7020260.779492035</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910412</v>
+        <v>111910567</v>
       </c>
       <c r="B4" t="n">
-        <v>78611</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,38 +924,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408374.6270096785</v>
+        <v>408284.1964350128</v>
       </c>
       <c r="R4" t="n">
-        <v>7020073.635709419</v>
+        <v>7019857.509490959</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,6 +1003,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,7 +1038,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910419</v>
+        <v>111910584</v>
       </c>
       <c r="B5" t="n">
         <v>89423</v>
@@ -1068,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408379.6130448866</v>
+        <v>408422.6472976486</v>
       </c>
       <c r="R5" t="n">
-        <v>7020248.537071504</v>
+        <v>7020304.006376172</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910568</v>
+        <v>111910425</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>76499</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1170,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>228579</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1194,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408324.8906824787</v>
+        <v>408400.3469668561</v>
       </c>
       <c r="R6" t="n">
-        <v>7019972.903301069</v>
+        <v>7020264.594941486</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,10 +1270,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910577</v>
+        <v>111910419</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,25 +1282,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408390.1474688642</v>
+        <v>408379.6130448866</v>
       </c>
       <c r="R7" t="n">
-        <v>7020254.53636289</v>
+        <v>7020248.537071504</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910425</v>
+        <v>111910415</v>
       </c>
       <c r="B8" t="n">
-        <v>76499</v>
+        <v>78612</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1398,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228579</v>
+        <v>6464</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408400.3469668561</v>
+        <v>408381.4174405072</v>
       </c>
       <c r="R8" t="n">
-        <v>7020264.594941486</v>
+        <v>7020090.541921036</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910582</v>
+        <v>111910416</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>73510</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,43 +1514,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6428</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408413.6559175308</v>
+        <v>408382.2393677595</v>
       </c>
       <c r="R9" t="n">
-        <v>7020304.712562223</v>
+        <v>7020103.568264721</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,6 +1598,21 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1613,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910562</v>
+        <v>111910403</v>
       </c>
       <c r="B10" t="n">
-        <v>73510</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,25 +1645,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6428</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1653,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408257.5929517139</v>
+        <v>408251.2666143124</v>
       </c>
       <c r="R10" t="n">
-        <v>7019841.167629559</v>
+        <v>7019793.194737672</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1729,10 +1749,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910579</v>
+        <v>111910574</v>
       </c>
       <c r="B11" t="n">
-        <v>73510</v>
+        <v>78579</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,25 +1761,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6428</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1789,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408392.1277534838</v>
+        <v>408385.7912159235</v>
       </c>
       <c r="R11" t="n">
-        <v>7020260.779492035</v>
+        <v>7020212.363065572</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,10 +1865,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910584</v>
+        <v>111910405</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,25 +1877,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1905,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408422.6472976486</v>
+        <v>408279.1267730237</v>
       </c>
       <c r="R12" t="n">
-        <v>7020304.006376172</v>
+        <v>7019869.354815559</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1961,10 +1981,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910423</v>
+        <v>111910575</v>
       </c>
       <c r="B13" t="n">
-        <v>78512</v>
+        <v>73681</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1997,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6456</v>
+        <v>6439</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2021,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408390.8445185713</v>
+        <v>408386.4833001395</v>
       </c>
       <c r="R13" t="n">
-        <v>7020231.567934379</v>
+        <v>7020236.641953751</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2077,10 +2097,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910408</v>
+        <v>111910581</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,39 +2113,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408291.5754312158</v>
+        <v>408431.9114105235</v>
       </c>
       <c r="R14" t="n">
-        <v>7019926.602274518</v>
+        <v>7020281.244182837</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2198,10 +2213,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910567</v>
+        <v>111910571</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>77599</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2214,39 +2229,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>283</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408284.1964350128</v>
+        <v>408375.9600568643</v>
       </c>
       <c r="R15" t="n">
-        <v>7019857.509490959</v>
+        <v>7020120.39690064</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2289,11 +2299,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2324,10 +2329,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910580</v>
+        <v>111910423</v>
       </c>
       <c r="B16" t="n">
-        <v>89401</v>
+        <v>78512</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2336,25 +2341,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1108</v>
+        <v>6456</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2364,10 +2369,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408399.1372819798</v>
+        <v>408390.8445185713</v>
       </c>
       <c r="R16" t="n">
-        <v>7020269.579071276</v>
+        <v>7020231.567934379</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2440,10 +2445,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910575</v>
+        <v>111910413</v>
       </c>
       <c r="B17" t="n">
-        <v>73681</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2452,25 +2457,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6439</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2480,10 +2485,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408386.4833001395</v>
+        <v>408368.6200402618</v>
       </c>
       <c r="R17" t="n">
-        <v>7020236.641953751</v>
+        <v>7020068.407007784</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2556,10 +2561,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910566</v>
+        <v>111910412</v>
       </c>
       <c r="B18" t="n">
-        <v>77599</v>
+        <v>78611</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,25 +2573,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>283</v>
+        <v>6463</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2596,10 +2601,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408271.3963294498</v>
+        <v>408374.6270096785</v>
       </c>
       <c r="R18" t="n">
-        <v>7019851.124340268</v>
+        <v>7020073.635709419</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2672,10 +2677,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910427</v>
+        <v>111910407</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>76499</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,25 +2689,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>228579</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2712,10 +2717,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408393.1435239307</v>
+        <v>408302.5497877288</v>
       </c>
       <c r="R19" t="n">
-        <v>7020264.800259375</v>
+        <v>7019916.388793938</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2788,10 +2793,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111910424</v>
+        <v>111910566</v>
       </c>
       <c r="B20" t="n">
-        <v>78579</v>
+        <v>77599</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2804,21 +2809,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>283</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2828,10 +2833,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408401.8052889875</v>
+        <v>408271.3963294498</v>
       </c>
       <c r="R20" t="n">
-        <v>7020220.906122548</v>
+        <v>7019851.124340268</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2884,21 +2889,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2919,10 +2909,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910414</v>
+        <v>111910568</v>
       </c>
       <c r="B21" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2935,21 +2925,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2959,10 +2949,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408383.6430053388</v>
+        <v>408324.8906824787</v>
       </c>
       <c r="R21" t="n">
-        <v>7020089.578494517</v>
+        <v>7019972.903301069</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3035,10 +3025,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910405</v>
+        <v>111910406</v>
       </c>
       <c r="B22" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3047,25 +3037,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3075,10 +3065,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408279.1267730237</v>
+        <v>408282.1748230148</v>
       </c>
       <c r="R22" t="n">
-        <v>7019869.354815559</v>
+        <v>7019881.418488222</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3151,10 +3141,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910574</v>
+        <v>111910576</v>
       </c>
       <c r="B23" t="n">
-        <v>78579</v>
+        <v>88966</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3167,21 +3157,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>5754</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3181,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408385.7912159235</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R23" t="n">
-        <v>7020212.363065572</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3267,10 +3257,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910409</v>
+        <v>111910572</v>
       </c>
       <c r="B24" t="n">
-        <v>78579</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3283,21 +3273,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3307,10 +3297,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408339.4740217168</v>
+        <v>408390.5581407979</v>
       </c>
       <c r="R24" t="n">
-        <v>7020026.038126357</v>
+        <v>7020142.48014423</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3383,10 +3373,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910416</v>
+        <v>111910570</v>
       </c>
       <c r="B25" t="n">
-        <v>73510</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3395,25 +3385,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6428</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3423,10 +3413,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408382.2393677595</v>
+        <v>408349.1653838595</v>
       </c>
       <c r="R25" t="n">
-        <v>7020103.568264721</v>
+        <v>7020113.061050257</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3479,21 +3469,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3514,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910407</v>
+        <v>111910563</v>
       </c>
       <c r="B26" t="n">
-        <v>76499</v>
+        <v>76872</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3526,25 +3501,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228579</v>
+        <v>498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3554,10 +3529,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408302.5497877288</v>
+        <v>408253.5661489163</v>
       </c>
       <c r="R26" t="n">
-        <v>7019916.388793938</v>
+        <v>7019842.182620179</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3746,10 +3721,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910411</v>
+        <v>111910582</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3758,38 +3733,43 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408373.6624359366</v>
+        <v>408413.6559175308</v>
       </c>
       <c r="R28" t="n">
-        <v>7020071.413228817</v>
+        <v>7020304.712562223</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3862,10 +3842,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910576</v>
+        <v>111910411</v>
       </c>
       <c r="B29" t="n">
-        <v>88966</v>
+        <v>90332</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3874,25 +3854,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5754</v>
+        <v>4769</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3902,10 +3882,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408390.1474688642</v>
+        <v>408373.6624359366</v>
       </c>
       <c r="R29" t="n">
-        <v>7020254.53636289</v>
+        <v>7020071.413228817</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3978,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910406</v>
+        <v>111910426</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3994,21 +3974,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4018,10 +3998,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408282.1748230148</v>
+        <v>408400.0377109755</v>
       </c>
       <c r="R30" t="n">
-        <v>7019881.418488222</v>
+        <v>7020269.553407325</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4094,10 +4074,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111910581</v>
+        <v>111910562</v>
       </c>
       <c r="B31" t="n">
-        <v>73696</v>
+        <v>73510</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4106,25 +4086,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6440</v>
+        <v>6428</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4134,10 +4114,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408431.9114105235</v>
+        <v>408257.5929517139</v>
       </c>
       <c r="R31" t="n">
-        <v>7020281.244182837</v>
+        <v>7019841.167629559</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4210,10 +4190,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910563</v>
+        <v>111910424</v>
       </c>
       <c r="B32" t="n">
-        <v>76872</v>
+        <v>78579</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4222,25 +4202,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>498</v>
+        <v>2081</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4250,10 +4230,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408253.5661489163</v>
+        <v>408401.8052889875</v>
       </c>
       <c r="R32" t="n">
-        <v>7019842.182620179</v>
+        <v>7020220.906122548</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4306,6 +4286,21 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4326,10 +4321,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910571</v>
+        <v>111910577</v>
       </c>
       <c r="B33" t="n">
-        <v>77599</v>
+        <v>78605</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4338,25 +4333,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>283</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4366,10 +4361,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408375.9600568643</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R33" t="n">
-        <v>7020120.39690064</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4442,10 +4437,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910418</v>
+        <v>111910580</v>
       </c>
       <c r="B34" t="n">
-        <v>78542</v>
+        <v>89401</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4454,25 +4449,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>229748</v>
+        <v>1108</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4482,10 +4477,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408388.6190515108</v>
+        <v>408399.1372819798</v>
       </c>
       <c r="R34" t="n">
-        <v>7020232.531316935</v>
+        <v>7020269.579071276</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4558,10 +4553,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910572</v>
+        <v>111910420</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>73696</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4574,21 +4569,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4598,10 +4593,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408390.5581407979</v>
+        <v>408379.4720543776</v>
       </c>
       <c r="R35" t="n">
-        <v>7020142.48014423</v>
+        <v>7020243.591405082</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4674,10 +4669,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910569</v>
+        <v>111910418</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>78542</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4686,25 +4681,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>229748</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4714,10 +4709,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408378.75428201</v>
+        <v>408388.6190515108</v>
       </c>
       <c r="R36" t="n">
-        <v>7020218.413349213</v>
+        <v>7020232.531316935</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4790,10 +4785,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910570</v>
+        <v>111910409</v>
       </c>
       <c r="B37" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4806,21 +4801,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4830,10 +4825,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408349.1653838595</v>
+        <v>408339.4740217168</v>
       </c>
       <c r="R37" t="n">
-        <v>7020113.061050257</v>
+        <v>7020026.038126357</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4906,10 +4901,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910565</v>
+        <v>111910414</v>
       </c>
       <c r="B38" t="n">
-        <v>77599</v>
+        <v>73696</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,21 +4917,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>283</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4946,10 +4941,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408269.3502808261</v>
+        <v>408383.6430053388</v>
       </c>
       <c r="R38" t="n">
-        <v>7019858.383160467</v>
+        <v>7020089.578494517</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5022,10 +5017,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910426</v>
+        <v>111910569</v>
       </c>
       <c r="B39" t="n">
-        <v>73696</v>
+        <v>89423</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5038,21 +5033,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5062,10 +5057,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408400.0377109755</v>
+        <v>408378.75428201</v>
       </c>
       <c r="R39" t="n">
-        <v>7020269.553407325</v>
+        <v>7020218.413349213</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5138,10 +5133,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910420</v>
+        <v>111910565</v>
       </c>
       <c r="B40" t="n">
-        <v>73696</v>
+        <v>77599</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5154,21 +5149,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6440</v>
+        <v>283</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5178,10 +5173,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408379.4720543776</v>
+        <v>408269.3502808261</v>
       </c>
       <c r="R40" t="n">
-        <v>7020243.591405082</v>
+        <v>7019858.383160467</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5254,10 +5249,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910415</v>
+        <v>111910408</v>
       </c>
       <c r="B41" t="n">
-        <v>78612</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5266,38 +5261,43 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408381.4174405072</v>
+        <v>408291.5754312158</v>
       </c>
       <c r="R41" t="n">
-        <v>7020090.541921036</v>
+        <v>7019926.602274518</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910567</v>
+        <v>111910419</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,39 +928,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408284.1964350128</v>
+        <v>408379.6130448866</v>
       </c>
       <c r="R4" t="n">
-        <v>7019857.509490959</v>
+        <v>7020248.537071504</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,11 +998,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1038,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910584</v>
+        <v>111910415</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>78612</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1078,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408422.6472976486</v>
+        <v>408381.4174405072</v>
       </c>
       <c r="R5" t="n">
-        <v>7020304.006376172</v>
+        <v>7020090.541921036</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910425</v>
+        <v>111910416</v>
       </c>
       <c r="B6" t="n">
-        <v>76499</v>
+        <v>73510</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,25 +1156,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228579</v>
+        <v>6428</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1194,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408400.3469668561</v>
+        <v>408382.2393677595</v>
       </c>
       <c r="R6" t="n">
-        <v>7020264.594941486</v>
+        <v>7020103.568264721</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,6 +1240,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1270,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910419</v>
+        <v>111910403</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>77597</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,21 +1291,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>864</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1310,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408379.6130448866</v>
+        <v>408251.2666143124</v>
       </c>
       <c r="R7" t="n">
-        <v>7020248.537071504</v>
+        <v>7019793.194737672</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1386,10 +1391,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910415</v>
+        <v>111910567</v>
       </c>
       <c r="B8" t="n">
-        <v>78612</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,38 +1403,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408381.4174405072</v>
+        <v>408284.1964350128</v>
       </c>
       <c r="R8" t="n">
-        <v>7020090.541921036</v>
+        <v>7019857.509490959</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,6 +1482,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1502,10 +1517,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910416</v>
+        <v>111910584</v>
       </c>
       <c r="B9" t="n">
-        <v>73510</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,25 +1529,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6428</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1542,10 +1557,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408382.2393677595</v>
+        <v>408422.6472976486</v>
       </c>
       <c r="R9" t="n">
-        <v>7020103.568264721</v>
+        <v>7020304.006376172</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,21 +1613,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1633,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910403</v>
+        <v>111910425</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>76499</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1649,21 +1649,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>228579</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408251.2666143124</v>
+        <v>408400.3469668561</v>
       </c>
       <c r="R10" t="n">
-        <v>7019793.194737672</v>
+        <v>7020264.594941486</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111910427</v>
+        <v>111910419</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408393.1435239307</v>
+        <v>408379.6130448866</v>
       </c>
       <c r="R2" t="n">
-        <v>7020264.800259375</v>
+        <v>7020248.537071504</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910579</v>
+        <v>111910427</v>
       </c>
       <c r="B3" t="n">
-        <v>73510</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6428</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408392.1277534838</v>
+        <v>408393.1435239307</v>
       </c>
       <c r="R3" t="n">
-        <v>7020260.779492035</v>
+        <v>7020264.800259375</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910419</v>
+        <v>111910424</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408379.6130448866</v>
+        <v>408401.8052889875</v>
       </c>
       <c r="R4" t="n">
-        <v>7020248.537071504</v>
+        <v>7020220.906122548</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,6 +1008,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1028,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910415</v>
+        <v>111910405</v>
       </c>
       <c r="B5" t="n">
-        <v>78612</v>
+        <v>78605</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1059,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408381.4174405072</v>
+        <v>408279.1267730237</v>
       </c>
       <c r="R5" t="n">
-        <v>7020090.541921036</v>
+        <v>7019869.354815559</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,10 +1159,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910416</v>
+        <v>111910414</v>
       </c>
       <c r="B6" t="n">
-        <v>73510</v>
+        <v>73696</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1171,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6428</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408382.2393677595</v>
+        <v>408383.6430053388</v>
       </c>
       <c r="R6" t="n">
-        <v>7020103.568264721</v>
+        <v>7020089.578494517</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,21 +1255,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1275,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910403</v>
+        <v>111910569</v>
       </c>
       <c r="B7" t="n">
-        <v>77597</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,21 +1291,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408251.2666143124</v>
+        <v>408378.75428201</v>
       </c>
       <c r="R7" t="n">
-        <v>7019793.194737672</v>
+        <v>7020218.413349213</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910567</v>
+        <v>111910426</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>73696</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1407,39 +1407,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408284.1964350128</v>
+        <v>408400.0377109755</v>
       </c>
       <c r="R8" t="n">
-        <v>7019857.509490959</v>
+        <v>7020269.553407325</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,11 +1477,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1517,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910584</v>
+        <v>111910572</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1533,21 +1523,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1557,10 +1547,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408422.6472976486</v>
+        <v>408390.5581407979</v>
       </c>
       <c r="R9" t="n">
-        <v>7020304.006376172</v>
+        <v>7020142.48014423</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1633,10 +1623,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910425</v>
+        <v>111910413</v>
       </c>
       <c r="B10" t="n">
-        <v>76499</v>
+        <v>78579</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1649,21 +1639,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1673,10 +1663,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408400.3469668561</v>
+        <v>408368.6200402618</v>
       </c>
       <c r="R10" t="n">
-        <v>7020264.594941486</v>
+        <v>7020068.407007784</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1749,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910574</v>
+        <v>111910416</v>
       </c>
       <c r="B11" t="n">
-        <v>78579</v>
+        <v>73510</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1761,25 +1751,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6428</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1789,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408385.7912159235</v>
+        <v>408382.2393677595</v>
       </c>
       <c r="R11" t="n">
-        <v>7020212.363065572</v>
+        <v>7020103.568264721</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,6 +1835,21 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1865,10 +1870,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910405</v>
+        <v>111910407</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>76499</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1877,25 +1882,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>228579</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1905,10 +1910,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408279.1267730237</v>
+        <v>408302.5497877288</v>
       </c>
       <c r="R12" t="n">
-        <v>7019869.354815559</v>
+        <v>7019916.388793938</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1981,10 +1986,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910575</v>
+        <v>111910411</v>
       </c>
       <c r="B13" t="n">
-        <v>73681</v>
+        <v>90332</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1997,21 +2002,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6439</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2021,10 +2026,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408386.4833001395</v>
+        <v>408373.6624359366</v>
       </c>
       <c r="R13" t="n">
-        <v>7020236.641953751</v>
+        <v>7020071.413228817</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2097,10 +2102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910581</v>
+        <v>111910576</v>
       </c>
       <c r="B14" t="n">
-        <v>73696</v>
+        <v>88966</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2113,21 +2118,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>5754</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2137,10 +2142,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408431.9114105235</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R14" t="n">
-        <v>7020281.244182837</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2213,10 +2218,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910571</v>
+        <v>111910563</v>
       </c>
       <c r="B15" t="n">
-        <v>77599</v>
+        <v>76872</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2225,25 +2230,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>283</v>
+        <v>498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2253,10 +2258,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408375.9600568643</v>
+        <v>408253.5661489163</v>
       </c>
       <c r="R15" t="n">
-        <v>7020120.39690064</v>
+        <v>7019842.182620179</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2329,10 +2334,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910423</v>
+        <v>111910574</v>
       </c>
       <c r="B16" t="n">
-        <v>78512</v>
+        <v>78579</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2341,25 +2346,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2369,10 +2374,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408390.8445185713</v>
+        <v>408385.7912159235</v>
       </c>
       <c r="R16" t="n">
-        <v>7020231.567934379</v>
+        <v>7020212.363065572</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2445,10 +2450,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910413</v>
+        <v>111910567</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2461,34 +2466,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408368.6200402618</v>
+        <v>408284.1964350128</v>
       </c>
       <c r="R17" t="n">
-        <v>7020068.407007784</v>
+        <v>7019857.509490959</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2531,6 +2541,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2561,10 +2576,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910412</v>
+        <v>111910562</v>
       </c>
       <c r="B18" t="n">
-        <v>78611</v>
+        <v>73510</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2577,21 +2592,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6463</v>
+        <v>6428</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2601,10 +2616,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408374.6270096785</v>
+        <v>408257.5929517139</v>
       </c>
       <c r="R18" t="n">
-        <v>7020073.635709419</v>
+        <v>7019841.167629559</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2677,10 +2692,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910407</v>
+        <v>111910582</v>
       </c>
       <c r="B19" t="n">
-        <v>76499</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2693,34 +2708,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228579</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408302.5497877288</v>
+        <v>408413.6559175308</v>
       </c>
       <c r="R19" t="n">
-        <v>7019916.388793938</v>
+        <v>7020304.712562223</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2793,10 +2813,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111910566</v>
+        <v>111910580</v>
       </c>
       <c r="B20" t="n">
-        <v>77599</v>
+        <v>89401</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2809,21 +2829,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>283</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2833,10 +2853,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408271.3963294498</v>
+        <v>408399.1372819798</v>
       </c>
       <c r="R20" t="n">
-        <v>7019851.124340268</v>
+        <v>7020269.579071276</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2909,10 +2929,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910568</v>
+        <v>111910408</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2925,34 +2945,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408324.8906824787</v>
+        <v>408291.5754312158</v>
       </c>
       <c r="R21" t="n">
-        <v>7019972.903301069</v>
+        <v>7019926.602274518</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3025,10 +3050,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910406</v>
+        <v>111910575</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>73681</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3037,25 +3062,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3065,10 +3090,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408282.1748230148</v>
+        <v>408386.4833001395</v>
       </c>
       <c r="R22" t="n">
-        <v>7019881.418488222</v>
+        <v>7020236.641953751</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3141,10 +3166,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910576</v>
+        <v>111910406</v>
       </c>
       <c r="B23" t="n">
-        <v>88966</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3157,21 +3182,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5754</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3181,10 +3206,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408390.1474688642</v>
+        <v>408282.1748230148</v>
       </c>
       <c r="R23" t="n">
-        <v>7020254.53636289</v>
+        <v>7019881.418488222</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3257,10 +3282,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910572</v>
+        <v>111910412</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>78611</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3269,25 +3294,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3297,10 +3322,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408390.5581407979</v>
+        <v>408374.6270096785</v>
       </c>
       <c r="R24" t="n">
-        <v>7020142.48014423</v>
+        <v>7020073.635709419</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3373,10 +3398,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910570</v>
+        <v>111910577</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>78605</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3385,25 +3410,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3413,10 +3438,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408349.1653838595</v>
+        <v>408390.1474688642</v>
       </c>
       <c r="R25" t="n">
-        <v>7020113.061050257</v>
+        <v>7020254.53636289</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3489,10 +3514,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910563</v>
+        <v>111910425</v>
       </c>
       <c r="B26" t="n">
-        <v>76872</v>
+        <v>76499</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3501,25 +3526,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>498</v>
+        <v>228579</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3529,10 +3554,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408253.5661489163</v>
+        <v>408400.3469668561</v>
       </c>
       <c r="R26" t="n">
-        <v>7019842.182620179</v>
+        <v>7020264.594941486</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3605,10 +3630,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111910564</v>
+        <v>111910568</v>
       </c>
       <c r="B27" t="n">
-        <v>96370</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3617,25 +3642,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3645,10 +3670,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408272.4765226962</v>
+        <v>408324.8906824787</v>
       </c>
       <c r="R27" t="n">
-        <v>7019857.39389276</v>
+        <v>7019972.903301069</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3721,10 +3746,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910582</v>
+        <v>111910571</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>77599</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3737,39 +3762,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>283</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408413.6559175308</v>
+        <v>408375.9600568643</v>
       </c>
       <c r="R28" t="n">
-        <v>7020304.712562223</v>
+        <v>7020120.39690064</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3842,10 +3862,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910411</v>
+        <v>111910415</v>
       </c>
       <c r="B29" t="n">
-        <v>90332</v>
+        <v>78612</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3858,21 +3878,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4769</v>
+        <v>6464</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3882,10 +3902,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408373.6624359366</v>
+        <v>408381.4174405072</v>
       </c>
       <c r="R29" t="n">
-        <v>7020071.413228817</v>
+        <v>7020090.541921036</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3958,10 +3978,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910426</v>
+        <v>111910418</v>
       </c>
       <c r="B30" t="n">
-        <v>73696</v>
+        <v>78542</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3970,25 +3990,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>229748</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3998,10 +4018,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408400.0377109755</v>
+        <v>408388.6190515108</v>
       </c>
       <c r="R30" t="n">
-        <v>7020269.553407325</v>
+        <v>7020232.531316935</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4074,10 +4094,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111910562</v>
+        <v>111910564</v>
       </c>
       <c r="B31" t="n">
-        <v>73510</v>
+        <v>96370</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4090,21 +4110,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6428</v>
+        <v>219847</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4114,10 +4134,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408257.5929517139</v>
+        <v>408272.4765226962</v>
       </c>
       <c r="R31" t="n">
-        <v>7019841.167629559</v>
+        <v>7019857.39389276</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4190,10 +4210,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910424</v>
+        <v>111910566</v>
       </c>
       <c r="B32" t="n">
-        <v>78579</v>
+        <v>77599</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4206,21 +4226,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2081</v>
+        <v>283</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4230,10 +4250,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408401.8052889875</v>
+        <v>408271.3963294498</v>
       </c>
       <c r="R32" t="n">
-        <v>7020220.906122548</v>
+        <v>7019851.124340268</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4286,21 +4306,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4321,10 +4326,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910577</v>
+        <v>111910570</v>
       </c>
       <c r="B33" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4333,25 +4338,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4361,10 +4366,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408390.1474688642</v>
+        <v>408349.1653838595</v>
       </c>
       <c r="R33" t="n">
-        <v>7020254.53636289</v>
+        <v>7020113.061050257</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4437,10 +4442,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910580</v>
+        <v>111910581</v>
       </c>
       <c r="B34" t="n">
-        <v>89401</v>
+        <v>73696</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4453,21 +4458,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1108</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4477,10 +4482,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408399.1372819798</v>
+        <v>408431.9114105235</v>
       </c>
       <c r="R34" t="n">
-        <v>7020269.579071276</v>
+        <v>7020281.244182837</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4553,10 +4558,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910420</v>
+        <v>111910409</v>
       </c>
       <c r="B35" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4569,21 +4574,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4593,10 +4598,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408379.4720543776</v>
+        <v>408339.4740217168</v>
       </c>
       <c r="R35" t="n">
-        <v>7020243.591405082</v>
+        <v>7020026.038126357</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4669,10 +4674,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910418</v>
+        <v>111910584</v>
       </c>
       <c r="B36" t="n">
-        <v>78542</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4681,25 +4686,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>229748</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4709,10 +4714,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408388.6190515108</v>
+        <v>408422.6472976486</v>
       </c>
       <c r="R36" t="n">
-        <v>7020232.531316935</v>
+        <v>7020304.006376172</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4785,10 +4790,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910409</v>
+        <v>111910579</v>
       </c>
       <c r="B37" t="n">
-        <v>78579</v>
+        <v>73510</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4797,25 +4802,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>6428</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4825,10 +4830,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408339.4740217168</v>
+        <v>408392.1277534838</v>
       </c>
       <c r="R37" t="n">
-        <v>7020026.038126357</v>
+        <v>7020260.779492035</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4901,7 +4906,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910414</v>
+        <v>111910420</v>
       </c>
       <c r="B38" t="n">
         <v>73696</v>
@@ -4941,10 +4946,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408383.6430053388</v>
+        <v>408379.4720543776</v>
       </c>
       <c r="R38" t="n">
-        <v>7020089.578494517</v>
+        <v>7020243.591405082</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5017,10 +5022,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910569</v>
+        <v>111910423</v>
       </c>
       <c r="B39" t="n">
-        <v>89423</v>
+        <v>78512</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5029,25 +5034,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5057,10 +5062,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408378.75428201</v>
+        <v>408390.8445185713</v>
       </c>
       <c r="R39" t="n">
-        <v>7020218.413349213</v>
+        <v>7020231.567934379</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5249,10 +5254,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910408</v>
+        <v>111910403</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>77597</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5265,39 +5270,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408291.5754312158</v>
+        <v>408251.2666143124</v>
       </c>
       <c r="R41" t="n">
-        <v>7019926.602274518</v>
+        <v>7019793.194737672</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408379.6130448866</v>
+        <v>408380</v>
       </c>
       <c r="R2" t="n">
-        <v>7020248.537071504</v>
+        <v>7020249</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910427</v>
+        <v>111910571</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>77599</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>283</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408393.1435239307</v>
+        <v>408376</v>
       </c>
       <c r="R3" t="n">
-        <v>7020264.800259375</v>
+        <v>7020120</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,19 +859,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910424</v>
+        <v>111910581</v>
       </c>
       <c r="B4" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408401.8052889875</v>
+        <v>408432</v>
       </c>
       <c r="R4" t="n">
-        <v>7020220.906122548</v>
+        <v>7020281</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,21 +965,11 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1008,21 +978,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1043,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910405</v>
+        <v>111910582</v>
       </c>
       <c r="B5" t="n">
-        <v>78605</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,38 +1010,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408279.1267730237</v>
+        <v>408414</v>
       </c>
       <c r="R5" t="n">
-        <v>7019869.354815559</v>
+        <v>7020305</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1116,19 +1076,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1159,10 +1109,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910414</v>
+        <v>111910415</v>
       </c>
       <c r="B6" t="n">
-        <v>73696</v>
+        <v>78612</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,25 +1121,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1199,10 +1149,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408383.6430053388</v>
+        <v>408381</v>
       </c>
       <c r="R6" t="n">
-        <v>7020089.578494517</v>
+        <v>7020091</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1232,19 +1182,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1275,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910569</v>
+        <v>111910420</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>73696</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,21 +1231,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1315,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408378.75428201</v>
+        <v>408379</v>
       </c>
       <c r="R7" t="n">
-        <v>7020218.413349213</v>
+        <v>7020244</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1348,19 +1288,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1391,7 +1321,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910426</v>
+        <v>111910414</v>
       </c>
       <c r="B8" t="n">
         <v>73696</v>
@@ -1431,10 +1361,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408400.0377109755</v>
+        <v>408384</v>
       </c>
       <c r="R8" t="n">
-        <v>7020269.553407325</v>
+        <v>7020090</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,19 +1394,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1507,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910572</v>
+        <v>111910567</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,34 +1443,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408390.5581407979</v>
+        <v>408284</v>
       </c>
       <c r="R9" t="n">
-        <v>7020142.48014423</v>
+        <v>7019858</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1580,19 +1505,14 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1623,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910413</v>
+        <v>111910564</v>
       </c>
       <c r="B10" t="n">
-        <v>78579</v>
+        <v>96370</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1635,25 +1555,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1663,10 +1583,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408368.6200402618</v>
+        <v>408272</v>
       </c>
       <c r="R10" t="n">
-        <v>7020068.407007784</v>
+        <v>7019857</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1696,19 +1616,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1739,10 +1649,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910416</v>
+        <v>111910575</v>
       </c>
       <c r="B11" t="n">
-        <v>73510</v>
+        <v>73681</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,21 +1665,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6428</v>
+        <v>6439</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408382.2393677595</v>
+        <v>408386</v>
       </c>
       <c r="R11" t="n">
-        <v>7020103.568264721</v>
+        <v>7020237</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,21 +1722,11 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1835,21 +1735,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1870,10 +1755,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910407</v>
+        <v>111910405</v>
       </c>
       <c r="B12" t="n">
-        <v>76499</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1882,25 +1767,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228579</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1910,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408302.5497877288</v>
+        <v>408279</v>
       </c>
       <c r="R12" t="n">
-        <v>7019916.388793938</v>
+        <v>7019869</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1943,19 +1828,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1986,10 +1861,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910411</v>
+        <v>111910418</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>78542</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2002,21 +1877,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>229748</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2026,10 +1901,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408373.6624359366</v>
+        <v>408389</v>
       </c>
       <c r="R13" t="n">
-        <v>7020071.413228817</v>
+        <v>7020233</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,19 +1934,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2102,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910576</v>
+        <v>111910572</v>
       </c>
       <c r="B14" t="n">
-        <v>88966</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2118,21 +1983,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5754</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2142,10 +2007,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408390.1474688642</v>
+        <v>408391</v>
       </c>
       <c r="R14" t="n">
-        <v>7020254.53636289</v>
+        <v>7020142</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2175,19 +2040,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2218,10 +2073,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910563</v>
+        <v>111910570</v>
       </c>
       <c r="B15" t="n">
-        <v>76872</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2230,25 +2085,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>498</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2258,10 +2113,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408253.5661489163</v>
+        <v>408349</v>
       </c>
       <c r="R15" t="n">
-        <v>7019842.182620179</v>
+        <v>7020113</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2291,19 +2146,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2334,10 +2179,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910574</v>
+        <v>111910566</v>
       </c>
       <c r="B16" t="n">
-        <v>78579</v>
+        <v>77599</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2350,21 +2195,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>283</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2374,10 +2219,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408385.7912159235</v>
+        <v>408271</v>
       </c>
       <c r="R16" t="n">
-        <v>7020212.363065572</v>
+        <v>7019851</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2407,19 +2252,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2450,10 +2285,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910567</v>
+        <v>111910574</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2466,39 +2301,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408284.1964350128</v>
+        <v>408386</v>
       </c>
       <c r="R17" t="n">
-        <v>7019857.509490959</v>
+        <v>7020212</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2528,24 +2358,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2576,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910562</v>
+        <v>111910406</v>
       </c>
       <c r="B18" t="n">
-        <v>73510</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2588,25 +2403,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2616,10 +2431,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408257.5929517139</v>
+        <v>408282</v>
       </c>
       <c r="R18" t="n">
-        <v>7019841.167629559</v>
+        <v>7019881</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2649,19 +2464,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2692,10 +2497,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910582</v>
+        <v>111910424</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2708,39 +2513,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408413.6559175308</v>
+        <v>408402</v>
       </c>
       <c r="R19" t="n">
-        <v>7020304.712562223</v>
+        <v>7020221</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2770,21 +2570,11 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2793,6 +2583,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2853,10 +2658,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408399.1372819798</v>
+        <v>408399</v>
       </c>
       <c r="R20" t="n">
-        <v>7020269.579071276</v>
+        <v>7020270</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2886,19 +2691,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2929,10 +2724,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910408</v>
+        <v>111910407</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>76499</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2945,39 +2740,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>228579</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408291.5754312158</v>
+        <v>408303</v>
       </c>
       <c r="R21" t="n">
-        <v>7019926.602274518</v>
+        <v>7019916</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3007,19 +2797,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3050,10 +2830,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910575</v>
+        <v>111910576</v>
       </c>
       <c r="B22" t="n">
-        <v>73681</v>
+        <v>88966</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3062,25 +2842,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6439</v>
+        <v>5754</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3090,10 +2870,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408386.4833001395</v>
+        <v>408390</v>
       </c>
       <c r="R22" t="n">
-        <v>7020236.641953751</v>
+        <v>7020255</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3123,19 +2903,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3166,10 +2936,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910406</v>
+        <v>111910403</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77597</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3182,21 +2952,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3206,10 +2976,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408282.1748230148</v>
+        <v>408251</v>
       </c>
       <c r="R23" t="n">
-        <v>7019881.418488222</v>
+        <v>7019793</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3239,19 +3009,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3282,10 +3042,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910412</v>
+        <v>111910427</v>
       </c>
       <c r="B24" t="n">
-        <v>78611</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3298,21 +3058,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6463</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3322,10 +3082,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408374.6270096785</v>
+        <v>408393</v>
       </c>
       <c r="R24" t="n">
-        <v>7020073.635709419</v>
+        <v>7020265</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3355,19 +3115,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3398,10 +3148,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910577</v>
+        <v>111910426</v>
       </c>
       <c r="B25" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3410,25 +3160,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3438,10 +3188,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408390.1474688642</v>
+        <v>408400</v>
       </c>
       <c r="R25" t="n">
-        <v>7020254.53636289</v>
+        <v>7020270</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3471,19 +3221,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3514,10 +3254,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910425</v>
+        <v>111910409</v>
       </c>
       <c r="B26" t="n">
-        <v>76499</v>
+        <v>78579</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3530,21 +3270,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3554,10 +3294,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408400.3469668561</v>
+        <v>408339</v>
       </c>
       <c r="R26" t="n">
-        <v>7020264.594941486</v>
+        <v>7020026</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3587,19 +3327,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3630,10 +3360,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111910568</v>
+        <v>111910584</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3646,21 +3376,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3670,10 +3400,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408324.8906824787</v>
+        <v>408423</v>
       </c>
       <c r="R27" t="n">
-        <v>7019972.903301069</v>
+        <v>7020304</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3703,19 +3433,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3746,7 +3466,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910571</v>
+        <v>111910565</v>
       </c>
       <c r="B28" t="n">
         <v>77599</v>
@@ -3786,10 +3506,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408375.9600568643</v>
+        <v>408269</v>
       </c>
       <c r="R28" t="n">
-        <v>7020120.39690064</v>
+        <v>7019858</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3819,19 +3539,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3862,10 +3572,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910415</v>
+        <v>111910563</v>
       </c>
       <c r="B29" t="n">
-        <v>78612</v>
+        <v>76872</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3874,25 +3584,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6464</v>
+        <v>498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3902,10 +3612,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408381.4174405072</v>
+        <v>408254</v>
       </c>
       <c r="R29" t="n">
-        <v>7020090.541921036</v>
+        <v>7019842</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3935,19 +3645,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3978,10 +3678,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910418</v>
+        <v>111910416</v>
       </c>
       <c r="B30" t="n">
-        <v>78542</v>
+        <v>73510</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3994,21 +3694,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>229748</v>
+        <v>6428</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4018,10 +3718,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408388.6190515108</v>
+        <v>408382</v>
       </c>
       <c r="R30" t="n">
-        <v>7020232.531316935</v>
+        <v>7020104</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4051,21 +3751,11 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -4074,6 +3764,21 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4094,10 +3799,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111910564</v>
+        <v>111910411</v>
       </c>
       <c r="B31" t="n">
-        <v>96370</v>
+        <v>90332</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4110,21 +3815,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>219847</v>
+        <v>4769</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4134,10 +3839,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408272.4765226962</v>
+        <v>408374</v>
       </c>
       <c r="R31" t="n">
-        <v>7019857.39389276</v>
+        <v>7020071</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4167,19 +3872,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4210,10 +3905,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910566</v>
+        <v>111910423</v>
       </c>
       <c r="B32" t="n">
-        <v>77599</v>
+        <v>78512</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4222,25 +3917,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>283</v>
+        <v>6456</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4250,10 +3945,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408271.3963294498</v>
+        <v>408391</v>
       </c>
       <c r="R32" t="n">
-        <v>7019851.124340268</v>
+        <v>7020232</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4283,19 +3978,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4326,10 +4011,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910570</v>
+        <v>111910562</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>73510</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4338,25 +4023,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6428</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4366,10 +4051,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408349.1653838595</v>
+        <v>408258</v>
       </c>
       <c r="R33" t="n">
-        <v>7020113.061050257</v>
+        <v>7019841</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4399,19 +4084,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4442,10 +4117,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910581</v>
+        <v>111910568</v>
       </c>
       <c r="B34" t="n">
-        <v>73696</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4458,21 +4133,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4482,10 +4157,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408431.9114105235</v>
+        <v>408325</v>
       </c>
       <c r="R34" t="n">
-        <v>7020281.244182837</v>
+        <v>7019973</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4515,19 +4190,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4558,10 +4223,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910409</v>
+        <v>111910412</v>
       </c>
       <c r="B35" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4570,25 +4235,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4598,10 +4263,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408339.4740217168</v>
+        <v>408375</v>
       </c>
       <c r="R35" t="n">
-        <v>7020026.038126357</v>
+        <v>7020074</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4631,19 +4296,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4674,10 +4329,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910584</v>
+        <v>111910579</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>73510</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4686,25 +4341,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6428</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4714,10 +4369,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408422.6472976486</v>
+        <v>408392</v>
       </c>
       <c r="R36" t="n">
-        <v>7020304.006376172</v>
+        <v>7020261</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4747,19 +4402,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4790,10 +4435,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910579</v>
+        <v>111910413</v>
       </c>
       <c r="B37" t="n">
-        <v>73510</v>
+        <v>78579</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4802,25 +4447,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6428</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4830,10 +4475,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408392.1277534838</v>
+        <v>408369</v>
       </c>
       <c r="R37" t="n">
-        <v>7020260.779492035</v>
+        <v>7020068</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4863,19 +4508,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4906,10 +4541,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910420</v>
+        <v>111910408</v>
       </c>
       <c r="B38" t="n">
-        <v>73696</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4922,34 +4557,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408379.4720543776</v>
+        <v>408292</v>
       </c>
       <c r="R38" t="n">
-        <v>7020243.591405082</v>
+        <v>7019927</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4979,19 +4619,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5022,10 +4652,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910423</v>
+        <v>111910577</v>
       </c>
       <c r="B39" t="n">
-        <v>78512</v>
+        <v>78605</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5038,21 +4668,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6456</v>
+        <v>6462</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5062,10 +4692,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408390.8445185713</v>
+        <v>408390</v>
       </c>
       <c r="R39" t="n">
-        <v>7020231.567934379</v>
+        <v>7020255</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5095,19 +4725,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5138,10 +4758,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910565</v>
+        <v>111910425</v>
       </c>
       <c r="B40" t="n">
-        <v>77599</v>
+        <v>76499</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5154,21 +4774,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>283</v>
+        <v>228579</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5178,10 +4798,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408269.3502808261</v>
+        <v>408400</v>
       </c>
       <c r="R40" t="n">
-        <v>7019858.383160467</v>
+        <v>7020265</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5211,19 +4831,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5254,10 +4864,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910403</v>
+        <v>111910569</v>
       </c>
       <c r="B41" t="n">
-        <v>77597</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5270,21 +4880,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5294,10 +4904,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408251.2666143124</v>
+        <v>408379</v>
       </c>
       <c r="R41" t="n">
-        <v>7019793.194737672</v>
+        <v>7020218</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5327,19 +4937,9 @@
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111910419</v>
+        <v>111910565</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>77719</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>283</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408380</v>
+        <v>408269</v>
       </c>
       <c r="R2" t="n">
-        <v>7020249</v>
+        <v>7019858</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910571</v>
+        <v>111910405</v>
       </c>
       <c r="B3" t="n">
-        <v>77599</v>
+        <v>78726</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>283</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408376</v>
+        <v>408279</v>
       </c>
       <c r="R3" t="n">
-        <v>7020120</v>
+        <v>7019869</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910581</v>
+        <v>111910570</v>
       </c>
       <c r="B4" t="n">
-        <v>73696</v>
+        <v>89557</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408432</v>
+        <v>408349</v>
       </c>
       <c r="R4" t="n">
-        <v>7020281</v>
+        <v>7020113</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910582</v>
+        <v>111910420</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>73820</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,39 +1014,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408414</v>
+        <v>408379</v>
       </c>
       <c r="R5" t="n">
-        <v>7020305</v>
+        <v>7020244</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1109,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910415</v>
+        <v>111910572</v>
       </c>
       <c r="B6" t="n">
-        <v>78612</v>
+        <v>89539</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1121,25 +1116,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6464</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1149,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408381</v>
+        <v>408391</v>
       </c>
       <c r="R6" t="n">
-        <v>7020091</v>
+        <v>7020142</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1215,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910420</v>
+        <v>111910416</v>
       </c>
       <c r="B7" t="n">
-        <v>73696</v>
+        <v>73634</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1227,25 +1222,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>6428</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1255,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408379</v>
+        <v>408382</v>
       </c>
       <c r="R7" t="n">
-        <v>7020244</v>
+        <v>7020104</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1301,6 +1296,21 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1321,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910414</v>
+        <v>111910427</v>
       </c>
       <c r="B8" t="n">
-        <v>73696</v>
+        <v>90221</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1333,25 +1343,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1361,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408384</v>
+        <v>408393</v>
       </c>
       <c r="R8" t="n">
-        <v>7020090</v>
+        <v>7020265</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1427,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910567</v>
+        <v>111910577</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>78726</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1439,43 +1449,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408284</v>
+        <v>408390</v>
       </c>
       <c r="R9" t="n">
-        <v>7019858</v>
+        <v>7020255</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1508,11 +1513,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1543,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910564</v>
+        <v>111910414</v>
       </c>
       <c r="B10" t="n">
-        <v>96370</v>
+        <v>73820</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1555,25 +1555,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408272</v>
+        <v>408384</v>
       </c>
       <c r="R10" t="n">
-        <v>7019857</v>
+        <v>7020090</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1649,10 +1649,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910575</v>
+        <v>111910571</v>
       </c>
       <c r="B11" t="n">
-        <v>73681</v>
+        <v>77719</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1661,25 +1661,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6439</v>
+        <v>283</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408386</v>
+        <v>408376</v>
       </c>
       <c r="R11" t="n">
-        <v>7020237</v>
+        <v>7020120</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910405</v>
+        <v>111910423</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>78633</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408279</v>
+        <v>408391</v>
       </c>
       <c r="R12" t="n">
-        <v>7019869</v>
+        <v>7020232</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910418</v>
+        <v>111910576</v>
       </c>
       <c r="B13" t="n">
-        <v>78542</v>
+        <v>89100</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1873,25 +1873,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229748</v>
+        <v>5754</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408389</v>
+        <v>408390</v>
       </c>
       <c r="R13" t="n">
-        <v>7020233</v>
+        <v>7020255</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910572</v>
+        <v>111910562</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>73634</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6428</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408391</v>
+        <v>408258</v>
       </c>
       <c r="R14" t="n">
-        <v>7020142</v>
+        <v>7019841</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910570</v>
+        <v>111910582</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2089,34 +2089,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408349</v>
+        <v>408414</v>
       </c>
       <c r="R15" t="n">
-        <v>7020113</v>
+        <v>7020305</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2179,10 +2184,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910566</v>
+        <v>111910413</v>
       </c>
       <c r="B16" t="n">
-        <v>77599</v>
+        <v>78700</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2195,21 +2200,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>283</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2219,10 +2224,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408271</v>
+        <v>408369</v>
       </c>
       <c r="R16" t="n">
-        <v>7019851</v>
+        <v>7020068</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2285,10 +2290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910574</v>
+        <v>111910575</v>
       </c>
       <c r="B17" t="n">
-        <v>78579</v>
+        <v>73805</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2297,25 +2302,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6439</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2328,7 +2333,7 @@
         <v>408386</v>
       </c>
       <c r="R17" t="n">
-        <v>7020212</v>
+        <v>7020237</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2391,10 +2396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910406</v>
+        <v>111910569</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89557</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2407,21 +2412,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2431,10 +2436,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408282</v>
+        <v>408379</v>
       </c>
       <c r="R18" t="n">
-        <v>7019881</v>
+        <v>7020218</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2497,10 +2502,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910424</v>
+        <v>111910564</v>
       </c>
       <c r="B19" t="n">
-        <v>78579</v>
+        <v>96742</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2509,25 +2514,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>219847</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2537,10 +2542,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408402</v>
+        <v>408272</v>
       </c>
       <c r="R19" t="n">
-        <v>7020221</v>
+        <v>7019857</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2583,21 +2588,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2618,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111910580</v>
+        <v>111910567</v>
       </c>
       <c r="B20" t="n">
-        <v>89401</v>
+        <v>56430</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2634,34 +2624,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408399</v>
+        <v>408284</v>
       </c>
       <c r="R20" t="n">
-        <v>7020270</v>
+        <v>7019858</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,6 +2689,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2724,10 +2724,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910407</v>
+        <v>111910419</v>
       </c>
       <c r="B21" t="n">
-        <v>76499</v>
+        <v>89557</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2740,21 +2740,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228579</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408303</v>
+        <v>408380</v>
       </c>
       <c r="R21" t="n">
-        <v>7019916</v>
+        <v>7020249</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910576</v>
+        <v>111910424</v>
       </c>
       <c r="B22" t="n">
-        <v>88966</v>
+        <v>78700</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5754</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408390</v>
+        <v>408402</v>
       </c>
       <c r="R22" t="n">
-        <v>7020255</v>
+        <v>7020221</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2916,6 +2916,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2936,10 +2951,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910403</v>
+        <v>111910411</v>
       </c>
       <c r="B23" t="n">
-        <v>77597</v>
+        <v>90466</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2948,25 +2963,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>864</v>
+        <v>4769</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2976,10 +2991,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408251</v>
+        <v>408374</v>
       </c>
       <c r="R23" t="n">
-        <v>7019793</v>
+        <v>7020071</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3042,10 +3057,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910427</v>
+        <v>111910408</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>56430</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3054,38 +3069,43 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408393</v>
+        <v>408292</v>
       </c>
       <c r="R24" t="n">
-        <v>7020265</v>
+        <v>7019927</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3148,10 +3168,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910426</v>
+        <v>111910581</v>
       </c>
       <c r="B25" t="n">
-        <v>73696</v>
+        <v>73820</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3188,10 +3208,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408400</v>
+        <v>408432</v>
       </c>
       <c r="R25" t="n">
-        <v>7020270</v>
+        <v>7020281</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3254,10 +3274,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910409</v>
+        <v>111910407</v>
       </c>
       <c r="B26" t="n">
-        <v>78579</v>
+        <v>76620</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3270,21 +3290,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2081</v>
+        <v>228579</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3294,10 +3314,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408339</v>
+        <v>408303</v>
       </c>
       <c r="R26" t="n">
-        <v>7020026</v>
+        <v>7019916</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3360,10 +3380,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111910584</v>
+        <v>111910579</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>73634</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3372,25 +3392,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>6428</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3400,10 +3420,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408423</v>
+        <v>408392</v>
       </c>
       <c r="R27" t="n">
-        <v>7020304</v>
+        <v>7020261</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3466,10 +3486,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910565</v>
+        <v>111910403</v>
       </c>
       <c r="B28" t="n">
-        <v>77599</v>
+        <v>77717</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3482,21 +3502,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>283</v>
+        <v>864</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3506,10 +3526,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408269</v>
+        <v>408251</v>
       </c>
       <c r="R28" t="n">
-        <v>7019858</v>
+        <v>7019793</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3572,10 +3592,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910563</v>
+        <v>111910568</v>
       </c>
       <c r="B29" t="n">
-        <v>76872</v>
+        <v>78699</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3584,25 +3604,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>498</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3612,10 +3632,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408254</v>
+        <v>408325</v>
       </c>
       <c r="R29" t="n">
-        <v>7019842</v>
+        <v>7019973</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3678,10 +3698,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910416</v>
+        <v>111910425</v>
       </c>
       <c r="B30" t="n">
-        <v>73510</v>
+        <v>76620</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3690,25 +3710,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6428</v>
+        <v>228579</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3718,10 +3738,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408382</v>
+        <v>408400</v>
       </c>
       <c r="R30" t="n">
-        <v>7020104</v>
+        <v>7020265</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3764,21 +3784,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -3799,10 +3804,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111910411</v>
+        <v>111910574</v>
       </c>
       <c r="B31" t="n">
-        <v>90332</v>
+        <v>78700</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3811,25 +3816,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4769</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3839,10 +3844,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408374</v>
+        <v>408386</v>
       </c>
       <c r="R31" t="n">
-        <v>7020071</v>
+        <v>7020212</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3905,10 +3910,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910423</v>
+        <v>111910406</v>
       </c>
       <c r="B32" t="n">
-        <v>78512</v>
+        <v>77636</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3917,25 +3922,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3945,10 +3950,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408391</v>
+        <v>408282</v>
       </c>
       <c r="R32" t="n">
-        <v>7020232</v>
+        <v>7019881</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4011,10 +4016,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910562</v>
+        <v>111910415</v>
       </c>
       <c r="B33" t="n">
-        <v>73510</v>
+        <v>78733</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4027,21 +4032,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6428</v>
+        <v>6464</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4051,10 +4056,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408258</v>
+        <v>408381</v>
       </c>
       <c r="R33" t="n">
-        <v>7019841</v>
+        <v>7020091</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4117,10 +4122,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910568</v>
+        <v>111910418</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>78663</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4129,25 +4134,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>229748</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4157,10 +4162,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408325</v>
+        <v>408389</v>
       </c>
       <c r="R34" t="n">
-        <v>7019973</v>
+        <v>7020233</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4226,7 +4231,7 @@
         <v>111910412</v>
       </c>
       <c r="B35" t="n">
-        <v>78611</v>
+        <v>78732</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4329,10 +4334,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910579</v>
+        <v>111910426</v>
       </c>
       <c r="B36" t="n">
-        <v>73510</v>
+        <v>73820</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4341,25 +4346,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6428</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4369,10 +4374,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408392</v>
+        <v>408400</v>
       </c>
       <c r="R36" t="n">
-        <v>7020261</v>
+        <v>7020270</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4435,10 +4440,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910413</v>
+        <v>111910409</v>
       </c>
       <c r="B37" t="n">
-        <v>78579</v>
+        <v>78700</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4475,10 +4480,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408369</v>
+        <v>408339</v>
       </c>
       <c r="R37" t="n">
-        <v>7020068</v>
+        <v>7020026</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4541,10 +4546,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910408</v>
+        <v>111910584</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4557,39 +4562,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408292</v>
+        <v>408423</v>
       </c>
       <c r="R38" t="n">
-        <v>7019927</v>
+        <v>7020304</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4652,10 +4652,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910577</v>
+        <v>111910566</v>
       </c>
       <c r="B39" t="n">
-        <v>78605</v>
+        <v>77719</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4664,25 +4664,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6462</v>
+        <v>283</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408390</v>
+        <v>408271</v>
       </c>
       <c r="R39" t="n">
-        <v>7020255</v>
+        <v>7019851</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910425</v>
+        <v>111910580</v>
       </c>
       <c r="B40" t="n">
-        <v>76499</v>
+        <v>89535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4774,21 +4774,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>228579</v>
+        <v>1108</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408400</v>
+        <v>408399</v>
       </c>
       <c r="R40" t="n">
-        <v>7020265</v>
+        <v>7020270</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910569</v>
+        <v>111910563</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>76993</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4876,25 +4876,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>498</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408379</v>
+        <v>408254</v>
       </c>
       <c r="R41" t="n">
-        <v>7020218</v>
+        <v>7019842</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111910565</v>
+        <v>111910403</v>
       </c>
       <c r="B2" t="n">
-        <v>77719</v>
+        <v>77731</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>283</v>
+        <v>864</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>408269</v>
+        <v>408251</v>
       </c>
       <c r="R2" t="n">
-        <v>7019858</v>
+        <v>7019793</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111910405</v>
+        <v>111910416</v>
       </c>
       <c r="B3" t="n">
-        <v>78726</v>
+        <v>73648</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6428</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408279</v>
+        <v>408382</v>
       </c>
       <c r="R3" t="n">
-        <v>7019869</v>
+        <v>7020104</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,6 +872,21 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -892,10 +907,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111910570</v>
+        <v>111910584</v>
       </c>
       <c r="B4" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408349</v>
+        <v>408423</v>
       </c>
       <c r="R4" t="n">
-        <v>7020113</v>
+        <v>7020304</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111910420</v>
+        <v>111910565</v>
       </c>
       <c r="B5" t="n">
-        <v>73820</v>
+        <v>77733</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1029,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>283</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1053,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408379</v>
+        <v>408269</v>
       </c>
       <c r="R5" t="n">
-        <v>7020244</v>
+        <v>7019858</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,10 +1119,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111910572</v>
+        <v>111910562</v>
       </c>
       <c r="B6" t="n">
-        <v>89539</v>
+        <v>73648</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1116,25 +1131,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6428</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1159,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>408391</v>
+        <v>408258</v>
       </c>
       <c r="R6" t="n">
-        <v>7020142</v>
+        <v>7019841</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111910416</v>
+        <v>111910407</v>
       </c>
       <c r="B7" t="n">
-        <v>73634</v>
+        <v>76634</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1222,25 +1237,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6428</v>
+        <v>228579</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1265,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408382</v>
+        <v>408303</v>
       </c>
       <c r="R7" t="n">
-        <v>7020104</v>
+        <v>7019916</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1296,21 +1311,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1331,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111910427</v>
+        <v>111910576</v>
       </c>
       <c r="B8" t="n">
-        <v>90221</v>
+        <v>89114</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1343,25 +1343,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>5754</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408393</v>
+        <v>408390</v>
       </c>
       <c r="R8" t="n">
-        <v>7020265</v>
+        <v>7020255</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111910577</v>
+        <v>111910415</v>
       </c>
       <c r="B9" t="n">
-        <v>78726</v>
+        <v>78747</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1453,21 +1453,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408390</v>
+        <v>408381</v>
       </c>
       <c r="R9" t="n">
-        <v>7020255</v>
+        <v>7020091</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111910414</v>
+        <v>111910566</v>
       </c>
       <c r="B10" t="n">
-        <v>73820</v>
+        <v>77733</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1559,21 +1559,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>283</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408384</v>
+        <v>408271</v>
       </c>
       <c r="R10" t="n">
-        <v>7020090</v>
+        <v>7019851</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1649,10 +1649,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910571</v>
+        <v>111910572</v>
       </c>
       <c r="B11" t="n">
-        <v>77719</v>
+        <v>89553</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1665,21 +1665,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>283</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408376</v>
+        <v>408391</v>
       </c>
       <c r="R11" t="n">
-        <v>7020120</v>
+        <v>7020142</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910423</v>
+        <v>111910579</v>
       </c>
       <c r="B12" t="n">
-        <v>78633</v>
+        <v>73648</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1771,21 +1771,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>6428</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408391</v>
+        <v>408392</v>
       </c>
       <c r="R12" t="n">
-        <v>7020232</v>
+        <v>7020261</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910576</v>
+        <v>111910419</v>
       </c>
       <c r="B13" t="n">
-        <v>89100</v>
+        <v>89571</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1877,21 +1877,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5754</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408390</v>
+        <v>408380</v>
       </c>
       <c r="R13" t="n">
-        <v>7020255</v>
+        <v>7020249</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910562</v>
+        <v>111910425</v>
       </c>
       <c r="B14" t="n">
-        <v>73634</v>
+        <v>76634</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6428</v>
+        <v>228579</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408258</v>
+        <v>408400</v>
       </c>
       <c r="R14" t="n">
-        <v>7019841</v>
+        <v>7020265</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910582</v>
+        <v>111910412</v>
       </c>
       <c r="B15" t="n">
-        <v>56430</v>
+        <v>78746</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2085,43 +2085,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408414</v>
+        <v>408375</v>
       </c>
       <c r="R15" t="n">
-        <v>7020305</v>
+        <v>7020074</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2184,10 +2179,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910413</v>
+        <v>111910420</v>
       </c>
       <c r="B16" t="n">
-        <v>78700</v>
+        <v>73834</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2200,21 +2195,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,10 +2219,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408369</v>
+        <v>408379</v>
       </c>
       <c r="R16" t="n">
-        <v>7020068</v>
+        <v>7020244</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2290,10 +2285,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910575</v>
+        <v>111910406</v>
       </c>
       <c r="B17" t="n">
-        <v>73805</v>
+        <v>77650</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2302,25 +2297,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2330,10 +2325,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408386</v>
+        <v>408282</v>
       </c>
       <c r="R17" t="n">
-        <v>7020237</v>
+        <v>7019881</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2396,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910569</v>
+        <v>111910405</v>
       </c>
       <c r="B18" t="n">
-        <v>89557</v>
+        <v>78740</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2408,25 +2403,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2436,10 +2431,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408379</v>
+        <v>408279</v>
       </c>
       <c r="R18" t="n">
-        <v>7020218</v>
+        <v>7019869</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2505,7 +2500,7 @@
         <v>111910564</v>
       </c>
       <c r="B19" t="n">
-        <v>96742</v>
+        <v>96757</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2608,10 +2603,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111910567</v>
+        <v>111910413</v>
       </c>
       <c r="B20" t="n">
-        <v>56430</v>
+        <v>78714</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2624,39 +2619,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408284</v>
+        <v>408369</v>
       </c>
       <c r="R20" t="n">
-        <v>7019858</v>
+        <v>7020068</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2689,11 +2679,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2724,10 +2709,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111910419</v>
+        <v>111910570</v>
       </c>
       <c r="B21" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2764,10 +2749,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408380</v>
+        <v>408349</v>
       </c>
       <c r="R21" t="n">
-        <v>7020249</v>
+        <v>7020113</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2830,10 +2815,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111910424</v>
+        <v>111910582</v>
       </c>
       <c r="B22" t="n">
-        <v>78700</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2846,34 +2831,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408402</v>
+        <v>408414</v>
       </c>
       <c r="R22" t="n">
-        <v>7020221</v>
+        <v>7020305</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2916,21 +2906,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2951,10 +2926,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111910411</v>
+        <v>111910424</v>
       </c>
       <c r="B23" t="n">
-        <v>90466</v>
+        <v>78714</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2963,25 +2938,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4769</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2991,10 +2966,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408374</v>
+        <v>408402</v>
       </c>
       <c r="R23" t="n">
-        <v>7020071</v>
+        <v>7020221</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3037,6 +3012,21 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3057,10 +3047,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111910408</v>
+        <v>111910411</v>
       </c>
       <c r="B24" t="n">
-        <v>56430</v>
+        <v>90480</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3069,43 +3059,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408292</v>
+        <v>408374</v>
       </c>
       <c r="R24" t="n">
-        <v>7019927</v>
+        <v>7020071</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3168,10 +3153,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111910581</v>
+        <v>111910427</v>
       </c>
       <c r="B25" t="n">
-        <v>73820</v>
+        <v>90235</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3180,25 +3165,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6440</v>
+        <v>3298</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3208,10 +3193,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>408432</v>
+        <v>408393</v>
       </c>
       <c r="R25" t="n">
-        <v>7020281</v>
+        <v>7020265</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3274,10 +3259,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111910407</v>
+        <v>111910571</v>
       </c>
       <c r="B26" t="n">
-        <v>76620</v>
+        <v>77733</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3290,21 +3275,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228579</v>
+        <v>283</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3314,10 +3299,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>408303</v>
+        <v>408376</v>
       </c>
       <c r="R26" t="n">
-        <v>7019916</v>
+        <v>7020120</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3380,10 +3365,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111910579</v>
+        <v>111910569</v>
       </c>
       <c r="B27" t="n">
-        <v>73634</v>
+        <v>89571</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3392,25 +3377,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6428</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3420,10 +3405,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>408392</v>
+        <v>408379</v>
       </c>
       <c r="R27" t="n">
-        <v>7020261</v>
+        <v>7020218</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3486,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111910403</v>
+        <v>111910575</v>
       </c>
       <c r="B28" t="n">
-        <v>77717</v>
+        <v>73819</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3498,25 +3483,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>864</v>
+        <v>6439</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3526,10 +3511,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>408251</v>
+        <v>408386</v>
       </c>
       <c r="R28" t="n">
-        <v>7019793</v>
+        <v>7020237</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3592,10 +3577,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111910568</v>
+        <v>111910577</v>
       </c>
       <c r="B29" t="n">
-        <v>78699</v>
+        <v>78740</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3604,25 +3589,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3632,10 +3617,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>408325</v>
+        <v>408390</v>
       </c>
       <c r="R29" t="n">
-        <v>7019973</v>
+        <v>7020255</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3698,10 +3683,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111910425</v>
+        <v>111910409</v>
       </c>
       <c r="B30" t="n">
-        <v>76620</v>
+        <v>78714</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3714,21 +3699,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228579</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3738,10 +3723,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>408400</v>
+        <v>408339</v>
       </c>
       <c r="R30" t="n">
-        <v>7020265</v>
+        <v>7020026</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3804,10 +3789,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111910574</v>
+        <v>111910580</v>
       </c>
       <c r="B31" t="n">
-        <v>78700</v>
+        <v>89549</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3820,21 +3805,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3844,10 +3829,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>408386</v>
+        <v>408399</v>
       </c>
       <c r="R31" t="n">
-        <v>7020212</v>
+        <v>7020270</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3910,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111910406</v>
+        <v>111910567</v>
       </c>
       <c r="B32" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3926,34 +3911,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>408282</v>
+        <v>408284</v>
       </c>
       <c r="R32" t="n">
-        <v>7019881</v>
+        <v>7019858</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3986,6 +3976,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4016,10 +4011,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111910415</v>
+        <v>111910581</v>
       </c>
       <c r="B33" t="n">
-        <v>78733</v>
+        <v>73834</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4028,25 +4023,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4056,10 +4051,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>408381</v>
+        <v>408432</v>
       </c>
       <c r="R33" t="n">
-        <v>7020091</v>
+        <v>7020281</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4122,10 +4117,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111910418</v>
+        <v>111910408</v>
       </c>
       <c r="B34" t="n">
-        <v>78663</v>
+        <v>56430</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4134,38 +4129,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>229748</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Sågbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>408389</v>
+        <v>408292</v>
       </c>
       <c r="R34" t="n">
-        <v>7020233</v>
+        <v>7019927</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111910412</v>
+        <v>111910418</v>
       </c>
       <c r="B35" t="n">
-        <v>78732</v>
+        <v>78677</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6463</v>
+        <v>229748</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4268,10 +4268,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>408375</v>
+        <v>408389</v>
       </c>
       <c r="R35" t="n">
-        <v>7020074</v>
+        <v>7020233</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4334,10 +4334,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111910426</v>
+        <v>111910574</v>
       </c>
       <c r="B36" t="n">
-        <v>73820</v>
+        <v>78714</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4350,21 +4350,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>408400</v>
+        <v>408386</v>
       </c>
       <c r="R36" t="n">
-        <v>7020270</v>
+        <v>7020212</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111910409</v>
+        <v>111910568</v>
       </c>
       <c r="B37" t="n">
-        <v>78700</v>
+        <v>78713</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4456,21 +4456,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4480,10 +4480,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>408339</v>
+        <v>408325</v>
       </c>
       <c r="R37" t="n">
-        <v>7020026</v>
+        <v>7019973</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4546,10 +4546,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111910584</v>
+        <v>111910414</v>
       </c>
       <c r="B38" t="n">
-        <v>89557</v>
+        <v>73834</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4562,21 +4562,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4586,10 +4586,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>408423</v>
+        <v>408384</v>
       </c>
       <c r="R38" t="n">
-        <v>7020304</v>
+        <v>7020090</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4652,10 +4652,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111910566</v>
+        <v>111910426</v>
       </c>
       <c r="B39" t="n">
-        <v>77719</v>
+        <v>73834</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4668,21 +4668,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>283</v>
+        <v>6440</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>408271</v>
+        <v>408400</v>
       </c>
       <c r="R39" t="n">
-        <v>7019851</v>
+        <v>7020270</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910580</v>
+        <v>111910423</v>
       </c>
       <c r="B40" t="n">
-        <v>89535</v>
+        <v>78647</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4770,25 +4770,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1108</v>
+        <v>6456</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408399</v>
+        <v>408391</v>
       </c>
       <c r="R40" t="n">
-        <v>7020270</v>
+        <v>7020232</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4867,7 +4867,7 @@
         <v>111910563</v>
       </c>
       <c r="B41" t="n">
-        <v>76993</v>
+        <v>77007</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>

--- a/artfynd/A 62982-2020.xlsx
+++ b/artfynd/A 62982-2020.xlsx
@@ -1649,10 +1649,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111910572</v>
+        <v>111910419</v>
       </c>
       <c r="B11" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1665,21 +1665,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408391</v>
+        <v>408380</v>
       </c>
       <c r="R11" t="n">
-        <v>7020142</v>
+        <v>7020249</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111910579</v>
+        <v>111910425</v>
       </c>
       <c r="B12" t="n">
-        <v>73648</v>
+        <v>76634</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1767,25 +1767,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6428</v>
+        <v>228579</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408392</v>
+        <v>408400</v>
       </c>
       <c r="R12" t="n">
-        <v>7020261</v>
+        <v>7020265</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111910419</v>
+        <v>111910572</v>
       </c>
       <c r="B13" t="n">
-        <v>89571</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1877,21 +1877,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408380</v>
+        <v>408391</v>
       </c>
       <c r="R13" t="n">
-        <v>7020249</v>
+        <v>7020142</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111910425</v>
+        <v>111910579</v>
       </c>
       <c r="B14" t="n">
-        <v>76634</v>
+        <v>73648</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228579</v>
+        <v>6428</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408400</v>
+        <v>408392</v>
       </c>
       <c r="R14" t="n">
-        <v>7020265</v>
+        <v>7020261</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2073,10 +2073,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111910412</v>
+        <v>111910406</v>
       </c>
       <c r="B15" t="n">
-        <v>78746</v>
+        <v>77650</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2085,20 +2085,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2113,10 +2113,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408375</v>
+        <v>408282</v>
       </c>
       <c r="R15" t="n">
-        <v>7020074</v>
+        <v>7019881</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111910420</v>
+        <v>111910412</v>
       </c>
       <c r="B16" t="n">
-        <v>73834</v>
+        <v>78746</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2191,25 +2191,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>6463</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408379</v>
+        <v>408375</v>
       </c>
       <c r="R16" t="n">
-        <v>7020244</v>
+        <v>7020074</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111910406</v>
+        <v>111910420</v>
       </c>
       <c r="B17" t="n">
-        <v>77650</v>
+        <v>73834</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2301,21 +2301,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408282</v>
+        <v>408379</v>
       </c>
       <c r="R17" t="n">
-        <v>7019881</v>
+        <v>7020244</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111910405</v>
+        <v>111910564</v>
       </c>
       <c r="B18" t="n">
-        <v>78740</v>
+        <v>96757</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2407,21 +2407,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>219847</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408279</v>
+        <v>408272</v>
       </c>
       <c r="R18" t="n">
-        <v>7019869</v>
+        <v>7019857</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111910564</v>
+        <v>111910405</v>
       </c>
       <c r="B19" t="n">
-        <v>96757</v>
+        <v>78740</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2513,21 +2513,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>219847</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408272</v>
+        <v>408279</v>
       </c>
       <c r="R19" t="n">
-        <v>7019857</v>
+        <v>7019869</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111910423</v>
+        <v>111910563</v>
       </c>
       <c r="B40" t="n">
-        <v>78647</v>
+        <v>77007</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4770,25 +4770,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6456</v>
+        <v>498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>408391</v>
+        <v>408254</v>
       </c>
       <c r="R40" t="n">
-        <v>7020232</v>
+        <v>7019842</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111910563</v>
+        <v>111910423</v>
       </c>
       <c r="B41" t="n">
-        <v>77007</v>
+        <v>78647</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4876,25 +4876,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>498</v>
+        <v>6456</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>408254</v>
+        <v>408391</v>
       </c>
       <c r="R41" t="n">
-        <v>7019842</v>
+        <v>7020232</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
